--- a/redmi note 8.xlsx
+++ b/redmi note 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Projeto1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC5E44-BA4D-4AA1-A3A2-F10E412F0A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3927BB83-356E-4C32-8236-925762578FC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="524">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1900,82 +1900,6 @@
   </si>
   <si>
     <t>Relevância</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Relevantes =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 174</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Irrelevantes = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>226</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Relevantes = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Irrelevantes = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>90</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -2394,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,29 +2331,23 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2453,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2469,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2477,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2485,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2501,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2517,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2525,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5630,8 +5548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,9 +5566,7 @@
       <c r="B1" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>526</v>
-      </c>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5659,9 +5575,7 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>527</v>
-      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
